--- a/dataset/Transportation/public_transportation.xlsx
+++ b/dataset/Transportation/public_transportation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yilin/Documents/COMP7507 Visualization and Visual Analytics/final project/TravelFriendlyCity/dataset/Transportation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F057B590-16CE-BE45-90B8-2C8EAD6707C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96654F0-96B6-4A4B-A739-5AEE34BA8204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="840" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15260" yWindow="2940" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="public_trans" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -446,10 +446,10 @@
         <v>201901</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>56646.35</v>
+        <v>4085.7579999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -457,10 +457,10 @@
         <v>201901</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4085.7579999999998</v>
+        <v>132367.375</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -468,10 +468,10 @@
         <v>201901</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>27097.528864</v>
+        <v>4580.9110000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -479,10 +479,10 @@
         <v>201901</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6922.5860000000002</v>
+        <v>56646.35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,10 +490,10 @@
         <v>201901</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4580.9110000000001</v>
+        <v>182906.89799999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -501,10 +501,10 @@
         <v>201901</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>132367.375</v>
+        <v>6922.5860000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -512,10 +512,10 @@
         <v>201901</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>182906.89799999999</v>
+        <v>27097.528864</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -523,10 +523,10 @@
         <v>201902</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>48436.67</v>
+        <v>4049.1210000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -534,10 +534,10 @@
         <v>201902</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>4049.1210000000001</v>
+        <v>114545.16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -545,10 +545,10 @@
         <v>201902</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>24389.201335999998</v>
+        <v>3811.1550000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -556,10 +556,10 @@
         <v>201902</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>6048.1059999999998</v>
+        <v>48436.67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -567,10 +567,10 @@
         <v>201902</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>3811.1550000000002</v>
+        <v>155707.69200000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -578,10 +578,10 @@
         <v>201902</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>155707.69200000001</v>
+        <v>6048.1059999999998</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -589,10 +589,10 @@
         <v>201902</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>114545.16</v>
+        <v>24389.201335999998</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -600,10 +600,10 @@
         <v>201903</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>56058.938999999998</v>
+        <v>3990.5569999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -611,10 +611,10 @@
         <v>201903</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>3990.5569999999998</v>
+        <v>130830.54399999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -622,10 +622,10 @@
         <v>201903</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>27429.239974</v>
+        <v>4496.5320000000002</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -633,10 +633,10 @@
         <v>201903</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>6807.2219999999998</v>
+        <v>56058.938999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -644,10 +644,10 @@
         <v>201903</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>4496.5320000000002</v>
+        <v>178409.48699999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -655,10 +655,10 @@
         <v>201903</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>130830.54399999999</v>
+        <v>6807.2219999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -666,10 +666,10 @@
         <v>201903</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>178409.48699999999</v>
+        <v>27429.239974</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -677,10 +677,10 @@
         <v>201904</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>52668.836000000003</v>
+        <v>3891.0830000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -688,10 +688,10 @@
         <v>201904</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>3891.0830000000001</v>
+        <v>122484.215</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -699,10 +699,10 @@
         <v>201904</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>25830.707154</v>
+        <v>4150.6480000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -710,10 +710,10 @@
         <v>201904</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>6416.1679999999997</v>
+        <v>52668.836000000003</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -721,10 +721,10 @@
         <v>201904</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>4150.6480000000001</v>
+        <v>164611.91</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -732,10 +732,10 @@
         <v>201904</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>122484.215</v>
+        <v>6416.1679999999997</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -743,10 +743,10 @@
         <v>201904</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>164611.91</v>
+        <v>25830.707154</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -754,10 +754,10 @@
         <v>201905</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>55396.717999999993</v>
+        <v>3872.0729999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -765,10 +765,10 @@
         <v>201905</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>3872.0729999999999</v>
+        <v>129592.56</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -776,10 +776,10 @@
         <v>201905</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>26910.362656000001</v>
+        <v>4516.1310000000003</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -787,10 +787,10 @@
         <v>201905</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>6781.0839999999998</v>
+        <v>55396.717999999993</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -798,10 +798,10 @@
         <v>201905</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>4516.1310000000003</v>
+        <v>175993.31099999999</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -809,10 +809,10 @@
         <v>201905</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>129592.56</v>
+        <v>6781.0839999999998</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -820,10 +820,10 @@
         <v>201905</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>175993.31099999999</v>
+        <v>26910.362656000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -831,10 +831,10 @@
         <v>201906</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>123628.74</v>
+        <v>3653.085</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -842,10 +842,10 @@
         <v>201906</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>167675.77799999999</v>
+        <v>123628.74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -853,10 +853,10 @@
         <v>201906</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>53599.56</v>
+        <v>4329.9489999999996</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -864,10 +864,10 @@
         <v>201906</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>3653.085</v>
+        <v>53599.56</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -875,10 +875,10 @@
         <v>201906</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>26370.964655</v>
+        <v>167675.77799999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -897,10 +897,10 @@
         <v>201906</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>4329.9489999999996</v>
+        <v>26370.964655</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -908,10 +908,10 @@
         <v>201907</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>125941.599</v>
+        <v>3600.3090000000002</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -919,10 +919,10 @@
         <v>201907</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>3600.3090000000002</v>
+        <v>125941.599</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -930,10 +930,10 @@
         <v>201907</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>169487.073</v>
+        <v>4197.107</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -952,10 +952,10 @@
         <v>201907</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>4197.107</v>
+        <v>169487.073</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -985,10 +985,10 @@
         <v>201908</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>159684.94699999999</v>
+        <v>3231.2109999999998</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>201908</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>6421.92</v>
+        <v>53803.124000000003</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>201908</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>26144.667152999999</v>
+        <v>159684.94699999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>201908</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>3231.2109999999998</v>
+        <v>6421.92</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>201908</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>53803.124000000003</v>
+        <v>26144.667152999999</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1062,10 +1062,10 @@
         <v>201909</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>128068.811</v>
+        <v>3187.2930000000001</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1073,10 +1073,10 @@
         <v>201909</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>155190.37299999999</v>
+        <v>128068.811</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1095,10 +1095,10 @@
         <v>201909</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>6521.5209999999997</v>
+        <v>53993.718000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,10 +1106,10 @@
         <v>201909</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>25713.279999999999</v>
+        <v>155190.37299999999</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1117,10 +1117,10 @@
         <v>201909</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>3187.2930000000001</v>
+        <v>6521.5209999999997</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1128,10 +1128,10 @@
         <v>201909</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>53993.718000000001</v>
+        <v>25713.279999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1139,10 +1139,10 @@
         <v>201910</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>130271.353</v>
+        <v>3560.1329999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1150,10 +1150,10 @@
         <v>201910</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>4293.0389999999998</v>
+        <v>132205.736</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1161,10 +1161,10 @@
         <v>201910</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>132205.736</v>
+        <v>4293.0389999999998</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1183,10 +1183,10 @@
         <v>201910</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>3560.1329999999998</v>
+        <v>130271.353</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1194,10 +1194,10 @@
         <v>201910</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>25696.787759999999</v>
+        <v>6386.4189999999999</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1205,10 +1205,10 @@
         <v>201910</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>6386.4189999999999</v>
+        <v>25696.787759999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1216,10 +1216,10 @@
         <v>201911</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>6209.6009999999997</v>
+        <v>3811.8739999999998</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1227,10 +1227,10 @@
         <v>201911</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>3886.5839999999998</v>
+        <v>108460.844</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1238,10 +1238,10 @@
         <v>201911</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>24354.365285</v>
+        <v>3886.5839999999998</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1249,10 +1249,10 @@
         <v>201911</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>3811.8739999999998</v>
+        <v>51547.120999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1260,10 +1260,10 @@
         <v>201911</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <v>51547.120999999999</v>
+        <v>129743.10400000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>201911</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>129743.10400000001</v>
+        <v>6209.6009999999997</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>201911</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>108460.844</v>
+        <v>24354.365285</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>201912</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>25360.885117999998</v>
+        <v>3660.431</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>201912</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80">
-        <v>147677.29699999999</v>
+        <v>125181.19500000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1315,10 +1315,10 @@
         <v>201912</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>3660.431</v>
+        <v>4689.4549999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>201912</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>4689.4549999999999</v>
+        <v>147677.29699999999</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1359,10 +1359,10 @@
         <v>201912</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>125181.19500000001</v>
+        <v>25360.885117999998</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1370,10 +1370,10 @@
         <v>202001</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>119633.586</v>
+        <v>3334.684999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>202001</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>140402.50200000001</v>
+        <v>119633.586</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>202001</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>5884.8540000000003</v>
+        <v>4190.442</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>202001</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>4190.442</v>
+        <v>49302.573999999993</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1414,10 +1414,10 @@
         <v>202001</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>25023.643810000001</v>
+        <v>140402.50200000001</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>202001</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>3334.684999999999</v>
+        <v>5884.8540000000003</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>202001</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>49302.573999999993</v>
+        <v>25023.643810000001</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>202002</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>2767.395</v>
+        <v>2094.7840000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>202002</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>3972.2089999999998</v>
+        <v>73687.516999999993</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>202002</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>16145.073</v>
+        <v>2767.395</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>202002</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>2094.7840000000001</v>
+        <v>31960.609</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1491,10 +1491,10 @@
         <v>202002</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>31960.609</v>
+        <v>81420.436000000002</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>202002</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98">
-        <v>81420.436000000002</v>
+        <v>3972.2089999999998</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>202002</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>73687.516999999993</v>
+        <v>16145.073</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>202003</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C101">
-        <v>36247.559000000001</v>
+        <v>82060.556000000011</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>202003</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>17955.404999999999</v>
+        <v>3157.123</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>202003</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>4470.5600000000004</v>
+        <v>36247.559000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>202003</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>3157.123</v>
+        <v>95358.843999999997</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1579,10 +1579,10 @@
         <v>202003</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>95358.843999999997</v>
+        <v>4470.5600000000004</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>202003</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>82060.556000000011</v>
+        <v>17955.404999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>202004</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>33472.838000000003</v>
+        <v>2243.221</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1612,10 +1612,10 @@
         <v>202004</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>2243.221</v>
+        <v>74655.704999999987</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>202004</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>15951.841</v>
+        <v>2927.0140000000001</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>202004</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>3994.2719999999999</v>
+        <v>33472.838000000003</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>202004</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>2927.0140000000001</v>
+        <v>85130.130999999994</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>202004</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>74655.704999999987</v>
+        <v>3994.2719999999999</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>202004</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>85130.130999999994</v>
+        <v>15951.841</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>202005</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>5008.7740000000003</v>
+        <v>2804.328</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>202005</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>110109.709</v>
+        <v>94298.412999999986</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>202005</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>39668.828999999998</v>
+        <v>3494.7190000000001</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>202005</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>2804.328</v>
+        <v>39668.828999999998</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>202005</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>20977.143</v>
+        <v>110109.709</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>202005</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>94298.412999999986</v>
+        <v>5008.7740000000003</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1744,10 +1744,10 @@
         <v>202005</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>3494.7190000000001</v>
+        <v>20977.143</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1755,10 +1755,10 @@
         <v>202006</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>124969.393</v>
+        <v>2821.165</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1766,10 +1766,10 @@
         <v>202006</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>3934.806</v>
+        <v>104919.522</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1777,10 +1777,10 @@
         <v>202006</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123">
-        <v>104919.522</v>
+        <v>3934.806</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>202006</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C125">
-        <v>2821.165</v>
+        <v>124969.393</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>202006</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C126">
-        <v>23471.865000000002</v>
+        <v>5507.89</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>202006</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>5507.89</v>
+        <v>23471.865000000002</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>202007</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128">
-        <v>38439.112000000001</v>
+        <v>2333.462</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1843,10 +1843,10 @@
         <v>202007</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129">
-        <v>103675.315</v>
+        <v>88706.34599999999</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>202007</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C130">
-        <v>2333.462</v>
+        <v>3389.7640000000001</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1865,10 +1865,10 @@
         <v>202007</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>19459.259999999998</v>
+        <v>38439.112000000001</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1876,10 +1876,10 @@
         <v>202007</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132">
-        <v>4819.2969999999996</v>
+        <v>103675.315</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>202007</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>3389.7640000000001</v>
+        <v>4819.2969999999996</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>202007</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C134">
-        <v>88706.34599999999</v>
+        <v>19459.259999999998</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>202008</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>76840.183000000005</v>
+        <v>2045.43</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1920,10 +1920,10 @@
         <v>202008</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136">
-        <v>2933.2260000000001</v>
+        <v>76840.183000000005</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>202008</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>89537.654999999999</v>
+        <v>2933.2260000000001</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1953,10 +1953,10 @@
         <v>202008</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C139">
-        <v>2045.43</v>
+        <v>89537.654999999999</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1964,10 +1964,10 @@
         <v>202008</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140">
-        <v>17123.455000000002</v>
+        <v>4327.5129999999999</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1975,10 +1975,10 @@
         <v>202008</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>4327.5129999999999</v>
+        <v>17123.455000000002</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1986,10 +1986,10 @@
         <v>202009</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>94382.926000000007</v>
+        <v>2410.7669999999998</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1997,10 +1997,10 @@
         <v>202009</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>114442.61</v>
+        <v>94382.926000000007</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2030,10 +2030,10 @@
         <v>202009</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>2410.7669999999998</v>
+        <v>114442.61</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2041,10 +2041,10 @@
         <v>202009</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>21233.108</v>
+        <v>4905.4279999999999</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2052,10 +2052,10 @@
         <v>202009</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>4905.4279999999999</v>
+        <v>21233.108</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>202010</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C149">
-        <v>106463.59299999999</v>
+        <v>3201.645</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>202010</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150">
-        <v>4043.2440000000001</v>
+        <v>106463.59299999999</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>202010</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151">
-        <v>129301.745</v>
+        <v>4043.2440000000001</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>202010</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C152">
-        <v>5213.3519999999999</v>
+        <v>44265.135000000002</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2107,10 +2107,10 @@
         <v>202010</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C153">
-        <v>22801.41</v>
+        <v>129301.745</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>202010</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C154">
-        <v>3201.645</v>
+        <v>5213.3519999999999</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>202010</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>44265.135000000002</v>
+        <v>22801.41</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>202011</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156">
-        <v>44465.187000000013</v>
+        <v>3033.627</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>202011</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157">
-        <v>129932.973</v>
+        <v>106846.15300000001</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2162,10 +2162,10 @@
         <v>202011</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>106846.15300000001</v>
+        <v>4114.9040000000005</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2173,10 +2173,10 @@
         <v>202011</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C159">
-        <v>4114.9040000000005</v>
+        <v>44465.187000000013</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>202011</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <v>5121.1549999999997</v>
+        <v>129932.973</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2195,10 +2195,10 @@
         <v>202011</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>22160.655999999999</v>
+        <v>5121.1549999999997</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>202011</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>3033.627</v>
+        <v>22160.655999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2217,10 +2217,10 @@
         <v>202012</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>88776.054999999993</v>
+        <v>2725.0819999999999</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2228,10 +2228,10 @@
         <v>202012</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164">
-        <v>105864.633</v>
+        <v>88776.054999999993</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2239,10 +2239,10 @@
         <v>202012</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>4459.5609999999997</v>
+        <v>3600.7559999999999</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2250,10 +2250,10 @@
         <v>202012</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C166">
-        <v>19144.375</v>
+        <v>37997.870000000003</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>202012</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167">
-        <v>3600.7559999999999</v>
+        <v>105864.633</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>202012</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>2725.0819999999999</v>
+        <v>4459.5609999999997</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>202012</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C169">
-        <v>37997.870000000003</v>
+        <v>19144.375</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2294,10 +2294,10 @@
         <v>202101</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>106090.78</v>
+        <v>2529.2240000000002</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2316,10 +2316,10 @@
         <v>202101</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C172">
-        <v>38648.471999999987</v>
+        <v>3542.7170000000001</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>202101</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173">
-        <v>2529.2240000000002</v>
+        <v>38648.471999999987</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>202101</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C174">
-        <v>18627.322</v>
+        <v>106090.78</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>202101</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C176">
-        <v>3542.7170000000001</v>
+        <v>18627.322</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2371,10 +2371,10 @@
         <v>202102</v>
       </c>
       <c r="B177" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177">
-        <v>36701.165999999997</v>
+        <v>2839.5720000000001</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2382,10 +2382,10 @@
         <v>202102</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C178">
-        <v>2839.5720000000001</v>
+        <v>85489.21</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2393,10 +2393,10 @@
         <v>202102</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C179">
-        <v>19261.759999999998</v>
+        <v>3291.0279999999998</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2404,10 +2404,10 @@
         <v>202102</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C180">
-        <v>4301.2809999999999</v>
+        <v>36701.165999999997</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2415,10 +2415,10 @@
         <v>202102</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181">
-        <v>3291.0279999999998</v>
+        <v>104057.742</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2426,10 +2426,10 @@
         <v>202102</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182">
-        <v>85489.21</v>
+        <v>4301.2809999999999</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2437,10 +2437,10 @@
         <v>202102</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>104057.742</v>
+        <v>19261.759999999998</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2448,10 +2448,10 @@
         <v>202103</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C184">
-        <v>105060.504</v>
+        <v>2983.9090000000001</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2459,10 +2459,10 @@
         <v>202103</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185">
-        <v>129953.84699999999</v>
+        <v>105060.504</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2470,10 +2470,10 @@
         <v>202103</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C186">
-        <v>44644.877</v>
+        <v>4113.5209999999997</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2481,10 +2481,10 @@
         <v>202103</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187">
-        <v>2983.9090000000001</v>
+        <v>44644.877</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2492,10 +2492,10 @@
         <v>202103</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C188">
-        <v>22092.006000000001</v>
+        <v>129953.84699999999</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2514,10 +2514,10 @@
         <v>202103</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C190">
-        <v>4113.5209999999997</v>
+        <v>22092.006000000001</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2525,10 +2525,10 @@
         <v>202104</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C191">
-        <v>126393.88099999999</v>
+        <v>3261.3850000000002</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2547,10 +2547,10 @@
         <v>202104</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>43873.754999999997</v>
+        <v>3994.7179999999998</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2558,10 +2558,10 @@
         <v>202104</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>3261.3850000000002</v>
+        <v>43873.754999999997</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2569,10 +2569,10 @@
         <v>202104</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C195">
-        <v>22069.165000000001</v>
+        <v>126393.88099999999</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>202104</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C197">
-        <v>3994.7179999999998</v>
+        <v>22069.165000000001</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>202105</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>110158.825</v>
+        <v>2901.8049999999998</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>202105</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199">
-        <v>134398.45000000001</v>
+        <v>110158.825</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>202105</v>
       </c>
       <c r="B200" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C200">
-        <v>46903.987000000001</v>
+        <v>4338.2780000000002</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2635,10 +2635,10 @@
         <v>202105</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201">
-        <v>2901.8049999999998</v>
+        <v>46903.987000000001</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2646,10 +2646,10 @@
         <v>202105</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C202">
-        <v>24338.260999999999</v>
+        <v>134398.45000000001</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2668,10 +2668,10 @@
         <v>202105</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C204">
-        <v>4338.2780000000002</v>
+        <v>24338.260999999999</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2679,10 +2679,10 @@
         <v>202106</v>
       </c>
       <c r="B205" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C205">
-        <v>45760.614999999998</v>
+        <v>2697.2089999999998</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2690,10 +2690,10 @@
         <v>202106</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C206">
-        <v>2697.2089999999998</v>
+        <v>107750.632</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2701,10 +2701,10 @@
         <v>202106</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>23856.732</v>
+        <v>4252.1210000000001</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2712,10 +2712,10 @@
         <v>202106</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C208">
-        <v>5539.2839999999997</v>
+        <v>45760.614999999998</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2723,10 +2723,10 @@
         <v>202106</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209">
-        <v>4252.1210000000001</v>
+        <v>134382.95199999999</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2734,10 +2734,10 @@
         <v>202106</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210">
-        <v>107750.632</v>
+        <v>5539.2839999999997</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2745,10 +2745,10 @@
         <v>202106</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>134382.95199999999</v>
+        <v>23856.732</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2756,10 +2756,10 @@
         <v>202107</v>
       </c>
       <c r="B212" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C212">
-        <v>46969.486999999986</v>
+        <v>2962.6350000000002</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2767,10 +2767,10 @@
         <v>202107</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C213">
-        <v>2962.6350000000002</v>
+        <v>109234.837</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2778,10 +2778,10 @@
         <v>202107</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>24948.501</v>
+        <v>4354.8329999999996</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2789,10 +2789,10 @@
         <v>202107</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C215">
-        <v>5774.4790000000003</v>
+        <v>46969.486999999986</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2800,10 +2800,10 @@
         <v>202107</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>4354.8329999999996</v>
+        <v>142383.47700000001</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2811,10 +2811,10 @@
         <v>202107</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C217">
-        <v>109234.837</v>
+        <v>5774.4790000000003</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2822,10 +2822,10 @@
         <v>202107</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C218">
-        <v>142383.47700000001</v>
+        <v>24948.501</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2833,10 +2833,10 @@
         <v>202108</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C219">
-        <v>110067.95</v>
+        <v>3051.375</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2844,10 +2844,10 @@
         <v>202108</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220">
-        <v>4315.3829999999998</v>
+        <v>110067.95</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>202108</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221">
-        <v>144504.62700000001</v>
+        <v>4315.3829999999998</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>202108</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C223">
-        <v>3051.375</v>
+        <v>144504.62700000001</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>202108</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C224">
-        <v>25137.948</v>
+        <v>5999.7929999999997</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2899,10 +2899,10 @@
         <v>202108</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>5999.7929999999997</v>
+        <v>25137.948</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2921,10 +2921,10 @@
         <v>202109</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C227">
-        <v>24816.893</v>
+        <v>112871.376</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2932,10 +2932,10 @@
         <v>202109</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228">
-        <v>5964.5389999999998</v>
+        <v>4614.0169999999998</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2943,10 +2943,10 @@
         <v>202109</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C229">
-        <v>4614.0169999999998</v>
+        <v>48250.321000000004</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2954,10 +2954,10 @@
         <v>202109</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230">
-        <v>112871.376</v>
+        <v>147095.03599999999</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2965,10 +2965,10 @@
         <v>202109</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231">
-        <v>147095.03599999999</v>
+        <v>5964.5389999999998</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2976,10 +2976,10 @@
         <v>202109</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C232">
-        <v>48250.321000000004</v>
+        <v>24816.893</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2987,10 +2987,10 @@
         <v>202110</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C233">
-        <v>105694.539</v>
+        <v>2803.0320000000002</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2998,10 +2998,10 @@
         <v>202110</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234">
-        <v>141732.791</v>
+        <v>105694.539</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3020,10 +3020,10 @@
         <v>202110</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C236">
-        <v>5668.6360000000004</v>
+        <v>45428.923999999999</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3031,10 +3031,10 @@
         <v>202110</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C237">
-        <v>23477.435000000001</v>
+        <v>141732.791</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3042,10 +3042,10 @@
         <v>202110</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C238">
-        <v>2803.0320000000002</v>
+        <v>5668.6360000000004</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3053,10 +3053,10 @@
         <v>202110</v>
       </c>
       <c r="B239" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>45428.923999999999</v>
+        <v>23477.435000000001</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3064,10 +3064,10 @@
         <v>202111</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C240">
-        <v>149049.88099999999</v>
+        <v>3165.357</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3097,10 +3097,10 @@
         <v>202111</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>6069.9759999999997</v>
+        <v>48218.201000000001</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3108,10 +3108,10 @@
         <v>202111</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C244">
-        <v>24316.725999999999</v>
+        <v>149049.88099999999</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>202111</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C245">
-        <v>3165.357</v>
+        <v>6069.9759999999997</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>202111</v>
       </c>
       <c r="B246" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C246">
-        <v>48218.201000000001</v>
+        <v>24316.725999999999</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>202112</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C247">
-        <v>113673.351</v>
+        <v>3524.5479999999998</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>202112</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248">
-        <v>153809.853</v>
+        <v>113673.351</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3163,10 +3163,10 @@
         <v>202112</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C249">
-        <v>47996.125999999997</v>
+        <v>4651.7139999999999</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3174,10 +3174,10 @@
         <v>202112</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C250">
-        <v>4651.7139999999999</v>
+        <v>47996.125999999997</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3185,10 +3185,10 @@
         <v>202112</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251">
-        <v>6097.6639999999998</v>
+        <v>153809.853</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3196,10 +3196,10 @@
         <v>202112</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C252">
-        <v>25306.99</v>
+        <v>6097.6639999999998</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3207,10 +3207,10 @@
         <v>202112</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C253">
-        <v>3524.5479999999998</v>
+        <v>25306.99</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3229,10 +3229,10 @@
         <v>202201</v>
       </c>
       <c r="B255" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C255">
-        <v>41997.34</v>
+        <v>97936.213000000003</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3240,10 +3240,10 @@
         <v>202201</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256">
-        <v>125070.87699999999</v>
+        <v>3927.288</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3251,10 +3251,10 @@
         <v>202201</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C257">
-        <v>97936.213000000003</v>
+        <v>41997.34</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3262,10 +3262,10 @@
         <v>202201</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C258">
-        <v>3927.288</v>
+        <v>125070.87699999999</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3295,10 +3295,10 @@
         <v>202202</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C261">
-        <v>58044.885999999999</v>
+        <v>1601.913</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3306,10 +3306,10 @@
         <v>202202</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C262">
-        <v>2342.2620000000002</v>
+        <v>58044.885999999999</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3317,10 +3317,10 @@
         <v>202202</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C263">
-        <v>3405.0250000000001</v>
+        <v>2342.2620000000002</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3328,10 +3328,10 @@
         <v>202202</v>
       </c>
       <c r="B264" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C264">
-        <v>15237.074000000001</v>
+        <v>25850.933000000001</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3339,10 +3339,10 @@
         <v>202202</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C265">
-        <v>1601.913</v>
+        <v>71867.035000000003</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3350,10 +3350,10 @@
         <v>202202</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C266">
-        <v>25850.933000000001</v>
+        <v>3405.0250000000001</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3361,10 +3361,10 @@
         <v>202202</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C267">
-        <v>71867.035000000003</v>
+        <v>15237.074000000001</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3372,10 +3372,10 @@
         <v>202203</v>
       </c>
       <c r="B268" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C268">
-        <v>74467.438999999998</v>
+        <v>1456.4739999999999</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3394,10 +3394,10 @@
         <v>202203</v>
       </c>
       <c r="B270" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C270">
-        <v>26931.288</v>
+        <v>2569.067</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>202203</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271">
-        <v>1456.4739999999999</v>
+        <v>26931.288</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>202203</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C272">
-        <v>14802.434999999999</v>
+        <v>74467.438999999998</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3438,10 +3438,10 @@
         <v>202203</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C274">
-        <v>2569.067</v>
+        <v>14802.434999999999</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3449,10 +3449,10 @@
         <v>202204</v>
       </c>
       <c r="B275" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C275">
-        <v>35351.703999999998</v>
+        <v>2800.6559999999999</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3460,10 +3460,10 @@
         <v>202204</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C276">
-        <v>2800.6559999999999</v>
+        <v>80733.114999999991</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3471,10 +3471,10 @@
         <v>202204</v>
       </c>
       <c r="B277" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C277">
-        <v>19335.919999999998</v>
+        <v>3424.4960000000001</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3482,10 +3482,10 @@
         <v>202204</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C278">
-        <v>4247.7960000000003</v>
+        <v>35351.703999999998</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3493,10 +3493,10 @@
         <v>202204</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C279">
-        <v>3424.4960000000001</v>
+        <v>103309.442</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3504,10 +3504,10 @@
         <v>202204</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C280">
-        <v>80733.114999999991</v>
+        <v>4247.7960000000003</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3515,10 +3515,10 @@
         <v>202204</v>
       </c>
       <c r="B281" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C281">
-        <v>103309.442</v>
+        <v>19335.919999999998</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3526,10 +3526,10 @@
         <v>202205</v>
       </c>
       <c r="B282" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C282">
-        <v>43076.148000000001</v>
+        <v>2675.6590000000001</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3537,10 +3537,10 @@
         <v>202205</v>
       </c>
       <c r="B283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C283">
-        <v>135674.603</v>
+        <v>100167.61900000001</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3548,10 +3548,10 @@
         <v>202205</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C284">
-        <v>2675.6590000000001</v>
+        <v>4232.6790000000001</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3559,10 +3559,10 @@
         <v>202205</v>
       </c>
       <c r="B285" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C285">
-        <v>23751.917000000001</v>
+        <v>43076.148000000001</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3570,10 +3570,10 @@
         <v>202205</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C286">
-        <v>5280.4759999999997</v>
+        <v>135674.603</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3581,10 +3581,10 @@
         <v>202205</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C287">
-        <v>4232.6790000000001</v>
+        <v>5280.4759999999997</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3592,10 +3592,10 @@
         <v>202205</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C288">
-        <v>100167.61900000001</v>
+        <v>23751.917000000001</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3603,10 +3603,10 @@
         <v>202206</v>
       </c>
       <c r="B289" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C289">
-        <v>43681.250999999997</v>
+        <v>2492.9810000000002</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3614,10 +3614,10 @@
         <v>202206</v>
       </c>
       <c r="B290" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C290">
-        <v>137826.546</v>
+        <v>101557.78</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3625,10 +3625,10 @@
         <v>202206</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C291">
-        <v>2492.9810000000002</v>
+        <v>4290.8450000000003</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3636,10 +3636,10 @@
         <v>202206</v>
       </c>
       <c r="B292" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C292">
-        <v>24265.846000000001</v>
+        <v>43681.250999999997</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>202206</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C293">
-        <v>5458.8519999999999</v>
+        <v>137826.546</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>202206</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C294">
-        <v>4290.8450000000003</v>
+        <v>5458.8519999999999</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>202206</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C295">
-        <v>101557.78</v>
+        <v>24265.846000000001</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>202207</v>
       </c>
       <c r="B296" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C296">
-        <v>43656.392</v>
+        <v>2510.1909999999998</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3691,10 +3691,10 @@
         <v>202207</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C297">
-        <v>139166.29300000001</v>
+        <v>102004.47</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3702,10 +3702,10 @@
         <v>202207</v>
       </c>
       <c r="B298" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C298">
-        <v>2510.1909999999998</v>
+        <v>4270.3050000000003</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3713,10 +3713,10 @@
         <v>202207</v>
       </c>
       <c r="B299" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C299">
-        <v>23826.510999999999</v>
+        <v>43656.392</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3724,10 +3724,10 @@
         <v>202207</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C300">
-        <v>5393.1080000000002</v>
+        <v>139166.29300000001</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3735,10 +3735,10 @@
         <v>202207</v>
       </c>
       <c r="B301" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C301">
-        <v>4270.3050000000003</v>
+        <v>5393.1080000000002</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3746,10 +3746,10 @@
         <v>202207</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C302">
-        <v>102004.47</v>
+        <v>23826.510999999999</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3757,10 +3757,10 @@
         <v>202208</v>
       </c>
       <c r="B303" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C303">
-        <v>44433.005999999987</v>
+        <v>2533.4989999999998</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3768,10 +3768,10 @@
         <v>202208</v>
       </c>
       <c r="B304" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C304">
-        <v>143012.6</v>
+        <v>103775.27099999999</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3779,10 +3779,10 @@
         <v>202208</v>
       </c>
       <c r="B305" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C305">
-        <v>2533.4989999999998</v>
+        <v>4285.96</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3790,10 +3790,10 @@
         <v>202208</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C306">
-        <v>23611.023000000001</v>
+        <v>44433.005999999987</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3801,10 +3801,10 @@
         <v>202208</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C307">
-        <v>5599.6270000000004</v>
+        <v>143012.6</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3812,10 +3812,10 @@
         <v>202208</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C308">
-        <v>4285.96</v>
+        <v>5599.6270000000004</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3823,10 +3823,10 @@
         <v>202208</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C309">
-        <v>103775.27099999999</v>
+        <v>23611.023000000001</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3845,10 +3845,10 @@
         <v>202209</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C311">
-        <v>5591.6480000000001</v>
+        <v>106729.413</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3878,10 +3878,10 @@
         <v>202209</v>
       </c>
       <c r="B314" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C314">
-        <v>106729.413</v>
+        <v>143678.731</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3889,10 +3889,10 @@
         <v>202209</v>
       </c>
       <c r="B315" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C315">
-        <v>143678.731</v>
+        <v>5591.6480000000001</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3911,10 +3911,10 @@
         <v>202210</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C317">
-        <v>148942.15100000001</v>
+        <v>2971.4090000000001</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3922,10 +3922,10 @@
         <v>202210</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C318">
-        <v>2971.4090000000001</v>
+        <v>111642.836</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3933,10 +3933,10 @@
         <v>202210</v>
       </c>
       <c r="B319" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C319">
-        <v>46707.358999999997</v>
+        <v>4856.6229999999996</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3944,10 +3944,10 @@
         <v>202210</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C320">
-        <v>111642.836</v>
+        <v>46707.358999999997</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3955,10 +3955,10 @@
         <v>202210</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C321">
-        <v>5766.424</v>
+        <v>148942.15100000001</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3966,10 +3966,10 @@
         <v>202210</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C322">
-        <v>4856.6229999999996</v>
+        <v>5766.424</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3988,10 +3988,10 @@
         <v>202211</v>
       </c>
       <c r="B324" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C324">
-        <v>106518.992</v>
+        <v>2715.7440000000001</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3999,10 +3999,10 @@
         <v>202211</v>
       </c>
       <c r="B325" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C325">
-        <v>143487.73000000001</v>
+        <v>106518.992</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4010,10 +4010,10 @@
         <v>202211</v>
       </c>
       <c r="B326" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C326">
-        <v>44145.147999999986</v>
+        <v>4672.37</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4021,10 +4021,10 @@
         <v>202211</v>
       </c>
       <c r="B327" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C327">
-        <v>2715.7440000000001</v>
+        <v>44145.147999999986</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4032,10 +4032,10 @@
         <v>202211</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C328">
-        <v>22672.371999999999</v>
+        <v>143487.73000000001</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4054,10 +4054,10 @@
         <v>202211</v>
       </c>
       <c r="B330" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C330">
-        <v>4672.37</v>
+        <v>22672.371999999999</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4065,10 +4065,10 @@
         <v>202212</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>5514.4960000000001</v>
+        <v>3104.462</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4076,10 +4076,10 @@
         <v>202212</v>
       </c>
       <c r="B332" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C332">
-        <v>23498.526999999998</v>
+        <v>106721.57</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4087,10 +4087,10 @@
         <v>202212</v>
       </c>
       <c r="B333" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C333">
-        <v>3104.462</v>
+        <v>4737.1469999999999</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4109,10 +4109,10 @@
         <v>202212</v>
       </c>
       <c r="B335" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C335">
-        <v>106721.57</v>
+        <v>145891.182</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4120,10 +4120,10 @@
         <v>202212</v>
       </c>
       <c r="B336" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C336">
-        <v>145891.182</v>
+        <v>5514.4960000000001</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4131,10 +4131,10 @@
         <v>202212</v>
       </c>
       <c r="B337" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C337">
-        <v>4737.1469999999999</v>
+        <v>23498.526999999998</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4142,10 +4142,10 @@
         <v>202301</v>
       </c>
       <c r="B338" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C338">
-        <v>106006.879</v>
+        <v>3050.9180000000001</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4153,10 +4153,10 @@
         <v>202301</v>
       </c>
       <c r="B339" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C339">
-        <v>143570.31899999999</v>
+        <v>106006.879</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4164,10 +4164,10 @@
         <v>202301</v>
       </c>
       <c r="B340" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C340">
-        <v>43374.222999999998</v>
+        <v>4653.2039999999997</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4175,10 +4175,10 @@
         <v>202301</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C341">
-        <v>3050.9180000000001</v>
+        <v>43374.222999999998</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4186,10 +4186,10 @@
         <v>202301</v>
       </c>
       <c r="B342" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C342">
-        <v>22548.883999999998</v>
+        <v>143570.31899999999</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4208,10 +4208,10 @@
         <v>202301</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C344">
-        <v>4653.2039999999997</v>
+        <v>22548.883999999998</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4219,10 +4219,10 @@
         <v>202302</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C345">
-        <v>105564.37300000001</v>
+        <v>2813.2289999999998</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4230,10 +4230,10 @@
         <v>202302</v>
       </c>
       <c r="B346" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C346">
-        <v>146662.478</v>
+        <v>105564.37300000001</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4241,10 +4241,10 @@
         <v>202302</v>
       </c>
       <c r="B347" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C347">
-        <v>42466.9</v>
+        <v>4566.0129999999999</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4252,10 +4252,10 @@
         <v>202302</v>
       </c>
       <c r="B348" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C348">
-        <v>2813.2289999999998</v>
+        <v>42466.9</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4263,10 +4263,10 @@
         <v>202302</v>
       </c>
       <c r="B349" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C349">
-        <v>21352.138999999999</v>
+        <v>146662.478</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4285,10 +4285,10 @@
         <v>202302</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C351">
-        <v>4566.0129999999999</v>
+        <v>21352.138999999999</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4296,10 +4296,10 @@
         <v>202303</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C352">
-        <v>117751.011</v>
+        <v>3377.5369999999998</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4307,10 +4307,10 @@
         <v>202303</v>
       </c>
       <c r="B353" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C353">
-        <v>164435.09700000001</v>
+        <v>117751.011</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4318,10 +4318,10 @@
         <v>202303</v>
       </c>
       <c r="B354" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C354">
-        <v>47125.913999999997</v>
+        <v>5128.8010000000004</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4329,10 +4329,10 @@
         <v>202303</v>
       </c>
       <c r="B355" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C355">
-        <v>3377.5369999999998</v>
+        <v>47125.913999999997</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4340,10 +4340,10 @@
         <v>202303</v>
       </c>
       <c r="B356" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C356">
-        <v>23224.596000000001</v>
+        <v>164435.09700000001</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4362,10 +4362,10 @@
         <v>202303</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C358">
-        <v>5128.8010000000004</v>
+        <v>23224.596000000001</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4373,10 +4373,10 @@
         <v>202304</v>
       </c>
       <c r="B359" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C359">
-        <v>106743.86199999999</v>
+        <v>3498.0369999999998</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4384,10 +4384,10 @@
         <v>202304</v>
       </c>
       <c r="B360" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C360">
-        <v>149029.92199999999</v>
+        <v>106743.86199999999</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4395,10 +4395,10 @@
         <v>202304</v>
       </c>
       <c r="B361" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C361">
-        <v>3498.0369999999998</v>
+        <v>4595.62</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4406,10 +4406,10 @@
         <v>202304</v>
       </c>
       <c r="B362" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C362">
-        <v>21814.792000000001</v>
+        <v>42816.94</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4417,10 +4417,10 @@
         <v>202304</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C363">
-        <v>5270.9790000000003</v>
+        <v>149029.92199999999</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4428,10 +4428,10 @@
         <v>202304</v>
       </c>
       <c r="B364" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C364">
-        <v>4595.62</v>
+        <v>5270.9790000000003</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4439,10 +4439,10 @@
         <v>202304</v>
       </c>
       <c r="B365" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C365">
-        <v>42816.94</v>
+        <v>21814.792000000001</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4450,10 +4450,10 @@
         <v>202305</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C366">
-        <v>112991.239</v>
+        <v>3234.6759999999999</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4461,10 +4461,10 @@
         <v>202305</v>
       </c>
       <c r="B367" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C367">
-        <v>157273.288</v>
+        <v>112991.239</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4472,10 +4472,10 @@
         <v>202305</v>
       </c>
       <c r="B368" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C368">
-        <v>45726.201000000001</v>
+        <v>4897.0140000000001</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4483,10 +4483,10 @@
         <v>202305</v>
       </c>
       <c r="B369" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C369">
-        <v>3234.6759999999999</v>
+        <v>45726.201000000001</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4494,10 +4494,10 @@
         <v>202305</v>
       </c>
       <c r="B370" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C370">
-        <v>22947.129000000001</v>
+        <v>157273.288</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4516,10 +4516,10 @@
         <v>202305</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C372">
-        <v>4897.0140000000001</v>
+        <v>22947.129000000001</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4527,10 +4527,10 @@
         <v>202306</v>
       </c>
       <c r="B373" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C373">
-        <v>154532.87299999999</v>
+        <v>2945.2330000000002</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4538,10 +4538,10 @@
         <v>202306</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C374">
-        <v>4808.5439999999999</v>
+        <v>110988.356</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4549,10 +4549,10 @@
         <v>202306</v>
       </c>
       <c r="B375" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C375">
-        <v>5714.3689999999997</v>
+        <v>4808.5439999999999</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4560,10 +4560,10 @@
         <v>202306</v>
       </c>
       <c r="B376" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C376">
-        <v>22862.606</v>
+        <v>44590.607000000004</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4571,10 +4571,10 @@
         <v>202306</v>
       </c>
       <c r="B377" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C377">
-        <v>2945.2330000000002</v>
+        <v>154532.87299999999</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4582,10 +4582,10 @@
         <v>202306</v>
       </c>
       <c r="B378" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C378">
-        <v>44590.607000000004</v>
+        <v>5714.3689999999997</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4593,10 +4593,10 @@
         <v>202306</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C379">
-        <v>110988.356</v>
+        <v>22862.606</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4604,10 +4604,10 @@
         <v>202307</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C380">
-        <v>111344.713</v>
+        <v>3368.6210000000001</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4615,10 +4615,10 @@
         <v>202307</v>
       </c>
       <c r="B381" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C381">
-        <v>22640.59</v>
+        <v>111344.713</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4626,10 +4626,10 @@
         <v>202307</v>
       </c>
       <c r="B382" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C382">
-        <v>159913.83799999999</v>
+        <v>4693.4229999999998</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4637,10 +4637,10 @@
         <v>202307</v>
       </c>
       <c r="B383" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C383">
-        <v>3368.6210000000001</v>
+        <v>44672.572999999997</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4648,10 +4648,10 @@
         <v>202307</v>
       </c>
       <c r="B384" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C384">
-        <v>44672.572999999997</v>
+        <v>159913.83799999999</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4659,10 +4659,10 @@
         <v>202307</v>
       </c>
       <c r="B385" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C385">
-        <v>4693.4229999999998</v>
+        <v>5661.4570000000003</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4670,10 +4670,10 @@
         <v>202307</v>
       </c>
       <c r="B386" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C386">
-        <v>5661.4570000000003</v>
+        <v>22640.59</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4681,10 +4681,10 @@
         <v>202308</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C387">
-        <v>114501.084</v>
+        <v>3675.3960000000002</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4692,10 +4692,10 @@
         <v>202308</v>
       </c>
       <c r="B388" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C388">
-        <v>165155.15400000001</v>
+        <v>114501.084</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4703,10 +4703,10 @@
         <v>202308</v>
       </c>
       <c r="B389" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C389">
-        <v>23468.353999999999</v>
+        <v>4737.1869999999999</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4714,10 +4714,10 @@
         <v>202308</v>
       </c>
       <c r="B390" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C390">
-        <v>3675.3960000000002</v>
+        <v>45427.743999999999</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4725,10 +4725,10 @@
         <v>202308</v>
       </c>
       <c r="B391" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C391">
-        <v>45427.743999999999</v>
+        <v>165155.15400000001</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4747,13 +4747,17 @@
         <v>202308</v>
       </c>
       <c r="B393" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C393">
-        <v>4737.1869999999999</v>
+        <v>23468.353999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C393">
+    <sortCondition ref="A2:A393"/>
+    <sortCondition ref="B2:B393"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
